--- a/ARCHIVE/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00004.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00004.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/deployment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/OOI/test/Pioneer_7A_cal_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1160" windowWidth="23060" windowHeight="8140" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="47340" yWindow="5540" windowWidth="26260" windowHeight="11900" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$H$19</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0">Moorings!$B$1:$K$78</definedName>
+    <definedName name="_FilterDatabase_0_0">Moorings!$B$1:$L$99</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$B$1:$K$78</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$B$1:$L$99</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$350</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$386</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$350</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$350</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$386</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$386</definedName>
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$350</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$386</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$H$19</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$78</definedName>
-    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$350</definedName>
+    <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$L$99</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -56,6 +56,12 @@
     <t>Serial Number</t>
   </si>
   <si>
+    <t>Anchor Launch Date</t>
+  </si>
+  <si>
+    <t>Anchor Launch Time</t>
+  </si>
+  <si>
     <t>Recover Date</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
     <t>CC_scale_factor4</t>
   </si>
   <si>
+    <t xml:space="preserve">Constant.  Per Chris Wingard: For all ADCPT and ADCPS instruments use a value of 0.45 dB/count. For ADCPA, use a value of 0.61 dB/count.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant.   </t>
+  </si>
+  <si>
     <t>CC_scattering_angle</t>
   </si>
   <si>
@@ -110,15 +122,36 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>Anchor Launch Date</t>
-  </si>
-  <si>
-    <t>Anchor Launch Time</t>
-  </si>
-  <si>
     <t>Mooring Serial Number</t>
   </si>
   <si>
+    <t>No calibration coefficient</t>
+  </si>
+  <si>
+    <t>Mooring OOIBARCODE</t>
+  </si>
+  <si>
+    <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>548 (head)</t>
+  </si>
+  <si>
+    <t>0746 ET</t>
+  </si>
+  <si>
+    <t>P7A Warren Jr.</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL379</t>
+  </si>
+  <si>
+    <t>Mooring UID</t>
+  </si>
+  <si>
+    <t>CGVEH-GLDRCP-00379</t>
+  </si>
+  <si>
     <t>CP05MOAS-GL379-01-ADCPAM000</t>
   </si>
   <si>
@@ -137,44 +170,32 @@
     <t>CP05MOAS-GL379-00-ENG000000</t>
   </si>
   <si>
-    <t>CP05MOAS-GL379</t>
-  </si>
-  <si>
-    <t>Mooring OOIBARCODE</t>
-  </si>
-  <si>
-    <t>A00367</t>
-  </si>
-  <si>
-    <t>Sensor OOIBARCODE</t>
-  </si>
-  <si>
-    <t>N00043</t>
-  </si>
-  <si>
-    <t>N00044</t>
-  </si>
-  <si>
-    <t>N00045</t>
-  </si>
-  <si>
-    <t>N00046</t>
-  </si>
-  <si>
-    <t>N00047</t>
-  </si>
-  <si>
-    <t>CC_bsipar_par_scaling</t>
-  </si>
-  <si>
-    <t>OL000354</t>
+    <t>CGINS-ADCPAM-00548</t>
+  </si>
+  <si>
+    <t>CGINS-FLORTM-04467</t>
+  </si>
+  <si>
+    <t>CGINS-CTDGV-09363</t>
+  </si>
+  <si>
+    <t>CGINS-DOSTAM-00029</t>
+  </si>
+  <si>
+    <t>CGINS-PARADM-50238</t>
+  </si>
+  <si>
+    <t>CGVCP-05MOAS-00000</t>
+  </si>
+  <si>
+    <t>CGCON-GLDRCP-00379</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,10 +204,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -234,17 +257,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -263,12 +280,40 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -286,7 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -325,16 +370,16 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -346,18 +391,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -365,7 +494,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -379,63 +514,137 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="20" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 15" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -808,89 +1017,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="25">
+        <v>379</v>
+      </c>
+      <c r="E2" s="25">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>42751</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="26">
+        <f>39+(55.031/60)</f>
+        <v>39.917183333333334</v>
+      </c>
+      <c r="J2" s="26">
+        <f>-(70+(24.021/60))</f>
+        <v>-70.400350000000003</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="24" t="e">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="N",1,-1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O2" s="24" t="e">
+        <f>((LEFT(J2,(FIND("°",J2,1)-1)))+(MID(J2,(FIND("°",J2,1)+1),(FIND("'",J2,1))-(FIND("°",J2,1)+1))/60))*(IF(RIGHT(J2,1)="E",1,-1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4">
-        <v>379</v>
-      </c>
-      <c r="D2" s="13">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="12" t="e">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N2" s="12" t="e">
-        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33">
+        <v>3955.0309999999999</v>
+      </c>
+      <c r="J3" s="33">
+        <v>7024.0209999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -900,463 +1147,561 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11">
+        <v>379</v>
+      </c>
+      <c r="D2" s="11">
+        <v>4</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11">
+        <v>379</v>
+      </c>
+      <c r="D3" s="11">
+        <v>4</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="11">
+        <v>379</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11">
+        <v>379</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="11">
+        <v>379</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="21">
+        <v>4467</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="20">
+        <v>124</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11">
+        <v>379</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="21">
+        <v>4467</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="20">
+        <v>700</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11">
+        <v>379</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4467</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="H9" s="20">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11">
+        <v>379</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4467</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="H10" s="20">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11">
         <v>379</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D12" s="11">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="E12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="21">
+        <v>9363</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11">
         <v>379</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="E14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="21">
+        <v>29</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11">
         <v>379</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D16" s="11">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="E16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="21">
+        <v>50238</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11">
         <v>379</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D18" s="11">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="11">
         <v>379</v>
       </c>
-      <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8">
-        <v>379</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8">
-        <v>379</v>
-      </c>
-      <c r="D9" s="8">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="8">
-        <v>379</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>379</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8">
-        <v>379</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8">
-        <v>379</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="8">
-        <v>379</v>
-      </c>
-      <c r="D18" s="8">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
